--- a/biology/Zoologie/Batara_à_dos_rayé/Batara_à_dos_rayé.xlsx
+++ b/biology/Zoologie/Batara_à_dos_rayé/Batara_à_dos_rayé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_dos_ray%C3%A9</t>
+          <t>Batara_à_dos_rayé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thamnophilus insignis
-Le Batara à dos rayé[1] (Thamnophilus insignis) est une espèce d'oiseaux de la famille des Thamnophilidae.
+Le Batara à dos rayé (Thamnophilus insignis) est une espèce d'oiseaux de la famille des Thamnophilidae.
 Son aire s'étend à travers les montagnes du Sud du Venezuela.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_dos_ray%C3%A9</t>
+          <t>Batara_à_dos_rayé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 février 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 février 2023) :
 Thamnophilus insignis insignis Salvin &amp; Godman, 1884
 Thamnophilus insignis nigrofrontalis W.H.Phelps &amp; W.H.Phelps Jr, 1947</t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_dos_ray%C3%A9</t>
+          <t>Batara_à_dos_rayé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Thamnophilus insignis Salvin &amp; Godman, 1884[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Batara à dos rayé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Thamnophilus insignis Salvin &amp; Godman, 1884.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Batara à dos rayé.
 </t>
         </is>
       </c>
